--- a/Challenge Brévenne 2025 - OSG.xlsx
+++ b/Challenge Brévenne 2025 - OSG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthieu\OneDrive - ISDEA\Documents\_Projets\Gala\challenge brévenne\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D29948-08CB-47AA-A40A-C025EC204016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AF305E-D8D8-4B71-AFB9-0EE22CB29693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="705" windowWidth="25290" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
   <dimension ref="A1:K237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD1046756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,147 +694,123 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>17.45</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>8.4499999999999993</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>18.899999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="G4">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>9.5</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>9.4</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>19.2</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -843,13 +819,13 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>18.850000000000001</v>
+        <v>19.75</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -858,12 +834,12 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>8.85</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -872,13 +848,13 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>19.149999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -887,12 +863,12 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>9.15</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -901,7 +877,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -921,7 +897,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -930,42 +906,42 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
       <c r="F9">
-        <v>16.600000000000001</v>
+        <v>18.05</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>7.6</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>18.2</v>
+        <v>19.55</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -973,34 +949,28 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
       <c r="K10">
-        <v>8.1999999999999993</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>18.7</v>
+        <v>19.25</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1008,89 +978,71 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
       <c r="K11">
-        <v>8.6999999999999993</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>18.350000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>8.35</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>19.149999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>9.5</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>9.5</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>9.65</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1099,27 +1051,27 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
       </c>
       <c r="F14">
-        <v>18.2</v>
+        <v>19.7</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>9.1999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1128,13 +1080,13 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15">
-        <v>19.149999999999999</v>
+        <v>19.25</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -1143,12 +1095,12 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>9.15</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1157,27 +1109,27 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16">
-        <v>18.399999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>9.4</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -1186,13 +1138,13 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
       <c r="F17">
-        <v>19.45</v>
+        <v>19.8</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -1201,27 +1153,27 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>9.4499999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F18">
-        <v>18.55</v>
+        <v>19.8</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -1229,34 +1181,28 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
       <c r="K18">
-        <v>8.5500000000000007</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F19">
-        <v>18.45</v>
+        <v>19.2</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -1264,104 +1210,86 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
       <c r="K19">
-        <v>8.4499999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F20">
-        <v>17.55</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>8</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>9.5500000000000007</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F21">
-        <v>18.399999999999999</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>9.4</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F22">
-        <v>18.55</v>
+        <v>16.75</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -1369,34 +1297,28 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
       <c r="K22">
-        <v>8.5500000000000007</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F23">
-        <v>18.850000000000001</v>
+        <v>19.05</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -1404,34 +1326,28 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-      <c r="J23">
-        <v>5</v>
-      </c>
       <c r="K23">
-        <v>8.85</v>
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F24">
-        <v>17.899999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -1439,378 +1355,390 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
       <c r="K24">
-        <v>8.9</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F25">
-        <v>19.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G25">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>9.5</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F26">
-        <v>16.2</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>8.1999999999999993</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F27">
-        <v>16.5</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>7.5</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F28">
-        <v>18.55</v>
+        <v>18.5</v>
       </c>
       <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>9.5</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>9.5</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F29">
-        <v>14.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29">
-        <v>4</v>
-      </c>
       <c r="K29">
-        <v>8.6999999999999993</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>18.2</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F31">
-        <v>9.5</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="G31">
         <v>10</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>9.15</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F32">
-        <v>9.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>9.4</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F33">
-        <v>9.5</v>
+        <v>19.45</v>
       </c>
       <c r="G33">
         <v>10</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F34">
-        <v>9.5</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G34">
         <v>10</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>9.4</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F35">
-        <v>9.5</v>
+        <v>18.95</v>
       </c>
       <c r="G35">
         <v>10</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>18.5</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>9.5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>17.45</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -1819,27 +1747,27 @@
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F38">
-        <v>19.5</v>
+        <v>16.75</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -1848,13 +1776,13 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39">
-        <v>19.100000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -1863,12 +1791,12 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -1877,27 +1805,27 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
       </c>
       <c r="F40">
-        <v>19.8</v>
+        <v>17.8</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>9.8000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -1906,13 +1834,13 @@
         <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
       <c r="F41">
-        <v>19.2</v>
+        <v>18.25</v>
       </c>
       <c r="G41">
         <v>10</v>
@@ -1921,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>9.1999999999999993</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -1935,13 +1863,13 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
         <v>24</v>
       </c>
       <c r="F42">
-        <v>19.399999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -1950,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>9.4</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1964,13 +1892,13 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
       </c>
       <c r="F43">
-        <v>18.95</v>
+        <v>19.25</v>
       </c>
       <c r="G43">
         <v>10</v>
@@ -1979,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>8.9499999999999993</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1993,13 +1921,13 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
         <v>25</v>
       </c>
       <c r="F44">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="G44">
         <v>9</v>
@@ -2008,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>9.5</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2022,13 +1950,13 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
         <v>26</v>
       </c>
       <c r="F45">
-        <v>17.45</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="G45">
         <v>9</v>
@@ -2037,39 +1965,33 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>8.4499999999999993</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F46">
-        <v>18.2</v>
+        <v>19.2</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>4</v>
-      </c>
-      <c r="J46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>9.1999999999999993</v>
@@ -2077,57 +1999,51 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F47">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="G47">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>8.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F48">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="G48">
         <v>9</v>
@@ -2135,34 +2051,28 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>9</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
       <c r="K48">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F49">
-        <v>17.100000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -2170,34 +2080,28 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49">
-        <v>4</v>
-      </c>
-      <c r="J49">
-        <v>5</v>
-      </c>
       <c r="K49">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F50">
-        <v>19.75</v>
+        <v>18.55</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -2205,28 +2109,34 @@
       <c r="H50">
         <v>1</v>
       </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
       <c r="K50">
-        <v>9.75</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F51">
-        <v>19.5</v>
+        <v>18.45</v>
       </c>
       <c r="G51">
         <v>10</v>
@@ -2234,66 +2144,84 @@
       <c r="H51">
         <v>1</v>
       </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
       <c r="K51">
-        <v>9.5</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F52">
-        <v>18.5</v>
+        <v>17.55</v>
       </c>
       <c r="G52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
+      <c r="I52">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
       <c r="K52">
-        <v>9.5</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F53">
-        <v>18.05</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
       </c>
       <c r="K53">
-        <v>8.0500000000000007</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2438,22 +2366,22 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F58">
-        <v>17.05</v>
+        <v>17.5</v>
       </c>
       <c r="G58">
         <v>9</v>
@@ -2468,27 +2396,27 @@
         <v>5</v>
       </c>
       <c r="K58">
-        <v>8.0500000000000007</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F59">
-        <v>18.5</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G59">
         <v>10</v>
@@ -2503,62 +2431,62 @@
         <v>5</v>
       </c>
       <c r="K59">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F60">
-        <v>17.05</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="G60">
         <v>8</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>9.0500000000000007</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F61">
-        <v>18</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="G61">
         <v>9</v>
@@ -2567,33 +2495,33 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K61">
-        <v>9</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F62">
-        <v>19.55</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G62">
         <v>10</v>
@@ -2601,28 +2529,34 @@
       <c r="H62">
         <v>1</v>
       </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
       <c r="K62">
-        <v>9.5500000000000007</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F63">
-        <v>19.25</v>
+        <v>18.75</v>
       </c>
       <c r="G63">
         <v>10</v>
@@ -2630,71 +2564,89 @@
       <c r="H63">
         <v>1</v>
       </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
       <c r="K63">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F64">
-        <v>18.399999999999999</v>
+        <v>17.55</v>
       </c>
       <c r="G64">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
       <c r="K64">
-        <v>9.4</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F65">
-        <v>19.5</v>
+        <v>18.25</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
       </c>
       <c r="K65">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -2703,13 +2655,13 @@
         <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
       </c>
       <c r="F66">
-        <v>15.35</v>
+        <v>17.55</v>
       </c>
       <c r="G66">
         <v>10</v>
@@ -2724,12 +2676,12 @@
         <v>5</v>
       </c>
       <c r="K66">
-        <v>5.35</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -2738,13 +2690,13 @@
         <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
         <v>16</v>
       </c>
       <c r="F67">
-        <v>19.100000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="G67">
         <v>10</v>
@@ -2759,12 +2711,12 @@
         <v>5</v>
       </c>
       <c r="K67">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
@@ -2773,13 +2725,13 @@
         <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F68">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="G68">
         <v>9</v>
@@ -2788,18 +2740,18 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>9.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -2808,83 +2760,83 @@
         <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F69">
-        <v>19.100000000000001</v>
+        <v>18.05</v>
       </c>
       <c r="G69">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K69">
-        <v>9.6</v>
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E70" t="s">
         <v>15</v>
       </c>
       <c r="F70">
-        <v>16.600000000000001</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="G70">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J70">
         <v>5</v>
       </c>
       <c r="K70">
-        <v>8.6</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
         <v>16</v>
       </c>
       <c r="F71">
-        <v>19.05</v>
+        <v>18.8</v>
       </c>
       <c r="G71">
         <v>10</v>
@@ -2899,27 +2851,27 @@
         <v>5</v>
       </c>
       <c r="K71">
-        <v>9.0500000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D72" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
         <v>17</v>
       </c>
       <c r="F72">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="G72">
         <v>9</v>
@@ -2934,27 +2886,27 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>9.5</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
         <v>18</v>
       </c>
       <c r="F73">
-        <v>17.2</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="G73">
         <v>9</v>
@@ -2969,211 +2921,307 @@
         <v>5</v>
       </c>
       <c r="K73">
-        <v>8.1999999999999993</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>18.2</v>
       </c>
       <c r="G74">
         <v>10</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+      <c r="K74">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F75">
-        <v>9.5</v>
+        <v>18.7</v>
       </c>
       <c r="G75">
         <v>10</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+      <c r="K75">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F76">
-        <v>8</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="G76">
         <v>10</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>8.35</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D77" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F77">
-        <v>9</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="G77">
-        <v>10</v>
+        <v>9.5</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>9.5</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>9.65</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F78">
-        <v>9.65</v>
+        <v>18.55</v>
       </c>
       <c r="G78">
         <v>10</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+      <c r="K78">
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F79">
-        <v>9</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="G79">
         <v>10</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>4</v>
+      </c>
+      <c r="J79">
+        <v>5</v>
+      </c>
+      <c r="K79">
+        <v>8.85</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F80">
-        <v>9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G80">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+      <c r="K80">
+        <v>8.9</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D81" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F81">
-        <v>9.8000000000000007</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G81">
-        <v>10</v>
+        <v>9.5</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>9.5</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>9.6</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F82">
-        <v>19.100000000000001</v>
+        <v>15.35</v>
       </c>
       <c r="G82">
         <v>10</v>
@@ -3188,27 +3236,27 @@
         <v>5</v>
       </c>
       <c r="K82">
-        <v>9.1</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F83">
-        <v>19.399999999999999</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G83">
         <v>10</v>
@@ -3223,33 +3271,33 @@
         <v>5</v>
       </c>
       <c r="K83">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F84">
-        <v>19</v>
+        <v>18.2</v>
       </c>
       <c r="G84">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>4</v>
@@ -3258,27 +3306,27 @@
         <v>5</v>
       </c>
       <c r="K84">
-        <v>9</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B85" t="s">
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E85" t="s">
         <v>17</v>
       </c>
       <c r="F85">
-        <v>18.95</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G85">
         <v>9.5</v>
@@ -3293,12 +3341,12 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>9.4499999999999993</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
@@ -3307,19 +3355,19 @@
         <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
       </c>
       <c r="F86">
-        <v>17.5</v>
+        <v>18.55</v>
       </c>
       <c r="G86">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>4</v>
@@ -3328,12 +3376,12 @@
         <v>5</v>
       </c>
       <c r="K86">
-        <v>8.5</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
@@ -3342,13 +3390,13 @@
         <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E87" t="s">
         <v>16</v>
       </c>
       <c r="F87">
-        <v>18.100000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G87">
         <v>10</v>
@@ -3363,12 +3411,12 @@
         <v>5</v>
       </c>
       <c r="K87">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
@@ -3377,33 +3425,33 @@
         <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F88">
-        <v>17.649999999999999</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G88">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K88">
-        <v>9.65</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
@@ -3412,71 +3460,83 @@
         <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F89">
-        <v>18.350000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G89">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="J89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>9.35</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="G90">
         <v>10</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <v>5</v>
+      </c>
+      <c r="K90">
+        <v>7.7</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D91" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F91">
-        <v>19.7</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -3484,28 +3544,34 @@
       <c r="H91">
         <v>1</v>
       </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>5</v>
+      </c>
       <c r="K91">
-        <v>9.6999999999999993</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E92" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F92">
-        <v>19.25</v>
+        <v>18.55</v>
       </c>
       <c r="G92">
         <v>10</v>
@@ -3513,57 +3579,69 @@
       <c r="H92">
         <v>1</v>
       </c>
+      <c r="I92">
+        <v>4</v>
+      </c>
+      <c r="J92">
+        <v>5</v>
+      </c>
       <c r="K92">
-        <v>9.25</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D93" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E93" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F93">
-        <v>19.8</v>
+        <v>19.05</v>
       </c>
       <c r="G93">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>9.5</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>9.8000000000000007</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D94" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E94" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F94">
-        <v>19.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G94">
         <v>10</v>
@@ -3571,69 +3649,75 @@
       <c r="H94">
         <v>1</v>
       </c>
+      <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94">
+        <v>5</v>
+      </c>
       <c r="K94">
-        <v>9.8000000000000007</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D95" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F95">
-        <v>18.05</v>
+        <v>17.8</v>
       </c>
       <c r="G95">
         <v>9</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J95">
         <v>5</v>
       </c>
       <c r="K95">
-        <v>9.0500000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D96" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F96">
-        <v>19.100000000000001</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>4</v>
@@ -3642,42 +3726,42 @@
         <v>5</v>
       </c>
       <c r="K96">
-        <v>9.1</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D97" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F97">
-        <v>19.350000000000001</v>
+        <v>19.25</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="J97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>9.35</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -3691,48 +3775,48 @@
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F98">
-        <v>19.100000000000001</v>
+        <v>17.05</v>
       </c>
       <c r="G98">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K98">
-        <v>9.6</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E99" t="s">
         <v>15</v>
       </c>
       <c r="F99">
-        <v>18.55</v>
+        <v>18.5</v>
       </c>
       <c r="G99">
         <v>10</v>
@@ -3747,132 +3831,132 @@
         <v>5</v>
       </c>
       <c r="K99">
-        <v>8.5500000000000007</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B100" t="s">
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E100" t="s">
         <v>16</v>
       </c>
       <c r="F100">
-        <v>19.100000000000001</v>
+        <v>17.05</v>
       </c>
       <c r="G100">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
         <v>4</v>
       </c>
-      <c r="J100">
-        <v>5</v>
-      </c>
       <c r="K100">
-        <v>9.1</v>
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101">
         <v>18</v>
       </c>
-      <c r="F101">
-        <v>19.100000000000001</v>
-      </c>
       <c r="G101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J101">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>9.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F102">
-        <v>19.399999999999999</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G102">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K102">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F103">
-        <v>19.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G103">
         <v>10</v>
@@ -3880,28 +3964,34 @@
       <c r="H103">
         <v>1</v>
       </c>
+      <c r="I103">
+        <v>4</v>
+      </c>
+      <c r="J103">
+        <v>5</v>
+      </c>
       <c r="K103">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E104" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F104">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="G104">
         <v>10</v>
@@ -3909,86 +3999,104 @@
       <c r="H104">
         <v>1</v>
       </c>
+      <c r="I104">
+        <v>4</v>
+      </c>
+      <c r="J104">
+        <v>5</v>
+      </c>
       <c r="K104">
-        <v>9.1999999999999993</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F105">
-        <v>18.600000000000001</v>
+        <v>18.95</v>
       </c>
       <c r="G105">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
+      <c r="I105">
+        <v>9.5</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
       <c r="K105">
-        <v>9.6</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E106" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F106">
-        <v>19.649999999999999</v>
+        <v>18.05</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>4</v>
+      </c>
+      <c r="J106">
+        <v>5</v>
       </c>
       <c r="K106">
-        <v>9.65</v>
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E107" t="s">
         <v>15</v>
       </c>
       <c r="F107">
-        <v>18.3</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G107">
         <v>10</v>
@@ -4003,33 +4111,33 @@
         <v>5</v>
       </c>
       <c r="K107">
-        <v>8.3000000000000007</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E108" t="s">
         <v>16</v>
       </c>
       <c r="F108">
-        <v>17.75</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="G108">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>4</v>
@@ -4038,386 +4146,482 @@
         <v>5</v>
       </c>
       <c r="K108">
-        <v>8.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B109" t="s">
         <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F109">
-        <v>14.85</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G109">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="J109">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>7.85</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F110">
-        <v>19.25</v>
+        <v>17.8</v>
       </c>
       <c r="G110">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K110">
-        <v>8.75</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F111">
-        <v>9</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G111">
         <v>10</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>4</v>
+      </c>
+      <c r="J111">
+        <v>5</v>
+      </c>
+      <c r="K111">
+        <v>9.6</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G112">
         <v>10</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>4</v>
+      </c>
+      <c r="J112">
+        <v>5</v>
+      </c>
+      <c r="K112">
+        <v>8.6</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F113">
-        <v>9.65</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="G113">
-        <v>10</v>
+        <v>9.5</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>9.5</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>9.35</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F114">
-        <v>9.5</v>
+        <v>17.25</v>
       </c>
       <c r="G114">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>4</v>
+      </c>
+      <c r="J114">
+        <v>5</v>
+      </c>
+      <c r="K114">
+        <v>8.25</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F115">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="G115">
         <v>10</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>4</v>
+      </c>
+      <c r="J115">
+        <v>5</v>
+      </c>
+      <c r="K115">
+        <v>9.5</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F116">
-        <v>8.5</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G116">
         <v>10</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>4</v>
+      </c>
+      <c r="J116">
+        <v>5</v>
+      </c>
+      <c r="K116">
+        <v>9.1</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F117">
-        <v>9</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="G117">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>9</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>9.35</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F118">
-        <v>9.8000000000000007</v>
+        <v>18</v>
       </c>
       <c r="G118">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118">
+        <v>5</v>
+      </c>
+      <c r="K118">
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F119">
-        <v>17.899999999999999</v>
+        <v>17.45</v>
       </c>
       <c r="G119">
         <v>9</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J119">
         <v>5</v>
       </c>
       <c r="K119">
-        <v>8.9</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F120">
-        <v>16.600000000000001</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G120">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="J120">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F121">
-        <v>19.05</v>
+        <v>18</v>
       </c>
       <c r="G121">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K121">
-        <v>9.0500000000000007</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F122">
-        <v>16.850000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="G122">
         <v>9</v>
@@ -4432,196 +4636,292 @@
         <v>5</v>
       </c>
       <c r="K122">
-        <v>7.85</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D123" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="G123">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>3</v>
+      </c>
+      <c r="J123">
+        <v>4</v>
+      </c>
+      <c r="K123">
+        <v>8.5</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D124" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F124">
-        <v>9</v>
+        <v>18.5</v>
       </c>
       <c r="G124">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>9</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>9.5</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F125">
-        <v>10</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G125">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>4</v>
+      </c>
+      <c r="J125">
+        <v>5</v>
+      </c>
+      <c r="K125">
+        <v>8.1</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F126">
-        <v>7.5</v>
+        <v>19.5</v>
       </c>
       <c r="G126">
         <v>10</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>4</v>
+      </c>
+      <c r="J126">
+        <v>5</v>
+      </c>
+      <c r="K126">
+        <v>9.5</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F127">
-        <v>9.6</v>
+        <v>19.25</v>
       </c>
       <c r="G127">
         <v>10</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>4</v>
+      </c>
+      <c r="J127">
+        <v>5</v>
+      </c>
+      <c r="K127">
+        <v>9.25</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F128">
-        <v>9</v>
+        <v>18.55</v>
       </c>
       <c r="G128">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>9</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F129">
-        <v>8.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G129">
         <v>10</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>4</v>
+      </c>
+      <c r="J129">
+        <v>5</v>
+      </c>
+      <c r="K129">
+        <v>7.9</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E130" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F130">
-        <v>8</v>
+        <v>19.5</v>
       </c>
       <c r="G130">
         <v>10</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>4</v>
+      </c>
+      <c r="J130">
+        <v>5</v>
+      </c>
+      <c r="K130">
+        <v>9.5</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
@@ -4630,19 +4930,19 @@
         <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F131">
-        <v>17.8</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="G131">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>4</v>
@@ -4651,12 +4951,12 @@
         <v>5</v>
       </c>
       <c r="K131">
-        <v>8.8000000000000007</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -4665,33 +4965,33 @@
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E132" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F132">
-        <v>19.600000000000001</v>
+        <v>18.25</v>
       </c>
       <c r="G132">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J132">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>9.6</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
@@ -4700,19 +5000,19 @@
         <v>13</v>
       </c>
       <c r="D133" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E133" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F133">
-        <v>18.600000000000001</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="G133">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>4</v>
@@ -4721,226 +5021,322 @@
         <v>5</v>
       </c>
       <c r="K133">
-        <v>8.6</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D134" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E134" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F134">
-        <v>18.850000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G134">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K134">
-        <v>9.35</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D135" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>19.05</v>
       </c>
       <c r="G135">
         <v>10</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>4</v>
+      </c>
+      <c r="J135">
+        <v>5</v>
+      </c>
+      <c r="K135">
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D136" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E136" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F136">
-        <v>9.65</v>
+        <v>18.5</v>
       </c>
       <c r="G136">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>9</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>9.5</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D137" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E137" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>17.2</v>
       </c>
       <c r="G137">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>4</v>
+      </c>
+      <c r="J137">
+        <v>5</v>
+      </c>
+      <c r="K137">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D138" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E138" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F138">
-        <v>9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G138">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>5</v>
+      </c>
+      <c r="K138">
+        <v>8.9</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D139" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E139" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F139">
-        <v>9.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G139">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>3</v>
+      </c>
+      <c r="J139">
+        <v>5</v>
+      </c>
+      <c r="K139">
+        <v>8.6</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D140" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E140" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F140">
-        <v>9</v>
+        <v>19.05</v>
       </c>
       <c r="G140">
         <v>10</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>10</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D141" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E141" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F141">
-        <v>8.5500000000000007</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="G141">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>4</v>
+      </c>
+      <c r="J141">
+        <v>5</v>
+      </c>
+      <c r="K141">
+        <v>7.85</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D142" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E142" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>19.05</v>
       </c>
       <c r="G142">
         <v>10</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>4</v>
+      </c>
+      <c r="J142">
+        <v>5</v>
+      </c>
+      <c r="K142">
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -4957,10 +5353,10 @@
         <v>77</v>
       </c>
       <c r="E143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F143">
-        <v>19.05</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G143">
         <v>10</v>
@@ -4975,7 +5371,7 @@
         <v>5</v>
       </c>
       <c r="K143">
-        <v>9.0500000000000007</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -4992,22 +5388,22 @@
         <v>77</v>
       </c>
       <c r="E144" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F144">
-        <v>18.399999999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G144">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>4</v>
       </c>
       <c r="J144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K144">
         <v>8.4</v>
@@ -5027,86 +5423,86 @@
         <v>77</v>
       </c>
       <c r="E145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F145">
-        <v>16.399999999999999</v>
+        <v>19.55</v>
       </c>
       <c r="G145">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>8.4</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D146" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E146" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F146">
-        <v>19.55</v>
+        <v>16.2</v>
       </c>
       <c r="G146">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
       <c r="I146">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K146">
-        <v>9.5500000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B147" t="s">
         <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D147" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F147">
-        <v>17.7</v>
+        <v>16.5</v>
       </c>
       <c r="G147">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>4</v>
@@ -5115,138 +5511,138 @@
         <v>5</v>
       </c>
       <c r="K147">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D148" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F148">
-        <v>18.850000000000001</v>
+        <v>18.55</v>
       </c>
       <c r="G148">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="J148">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K148">
-        <v>8.85</v>
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B149" t="s">
         <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D149" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E149" t="s">
         <v>18</v>
       </c>
       <c r="F149">
-        <v>18.55</v>
+        <v>14.7</v>
       </c>
       <c r="G149">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
         <v>4</v>
       </c>
-      <c r="J149">
-        <v>5</v>
-      </c>
       <c r="K149">
-        <v>8.5500000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D150" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E150" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F150">
-        <v>19.05</v>
+        <v>18.3</v>
       </c>
       <c r="G150">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K150">
-        <v>9.5500000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D151" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E151" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F151">
-        <v>19.100000000000001</v>
+        <v>17.75</v>
       </c>
       <c r="G151">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>4</v>
@@ -5255,103 +5651,103 @@
         <v>5</v>
       </c>
       <c r="K151">
-        <v>9.1</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D152" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E152" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F152">
-        <v>18.75</v>
+        <v>14.85</v>
       </c>
       <c r="G152">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
+        <v>3</v>
+      </c>
+      <c r="J152">
         <v>4</v>
       </c>
-      <c r="J152">
-        <v>5</v>
-      </c>
       <c r="K152">
-        <v>8.75</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D153" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E153" t="s">
         <v>17</v>
       </c>
       <c r="F153">
-        <v>17.55</v>
+        <v>19.25</v>
       </c>
       <c r="G153">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153">
-        <v>9.5500000000000007</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B154" t="s">
         <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D154" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E154" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F154">
         <v>18.25</v>
       </c>
       <c r="G154">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>4</v>
@@ -5360,56 +5756,62 @@
         <v>5</v>
       </c>
       <c r="K154">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D155" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E155" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F155">
-        <v>16.75</v>
+        <v>19.55</v>
       </c>
       <c r="G155">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
+      <c r="I155">
+        <v>4</v>
+      </c>
+      <c r="J155">
+        <v>5</v>
+      </c>
       <c r="K155">
-        <v>8.25</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D156" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E156" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F156">
-        <v>18.600000000000001</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="G156">
         <v>10</v>
@@ -5417,71 +5819,77 @@
       <c r="H156">
         <v>1</v>
       </c>
+      <c r="I156">
+        <v>4</v>
+      </c>
+      <c r="J156">
+        <v>5</v>
+      </c>
       <c r="K156">
-        <v>8.6</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D157" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E157" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F157">
-        <v>17.8</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="G157">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
+      <c r="I157">
+        <v>10.5</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
       <c r="K157">
-        <v>8.8000000000000007</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D158" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E158" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F158">
-        <v>18.25</v>
+        <v>10</v>
       </c>
       <c r="G158">
         <v>10</v>
-      </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-      <c r="K158">
-        <v>8.25</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B159" t="s">
         <v>38</v>
@@ -5490,13 +5898,13 @@
         <v>39</v>
       </c>
       <c r="D159" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E159" t="s">
         <v>42</v>
       </c>
       <c r="F159">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="G159">
         <v>10</v>
@@ -5504,7 +5912,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B160" t="s">
         <v>38</v>
@@ -5513,21 +5921,21 @@
         <v>39</v>
       </c>
       <c r="D160" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="G160">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B161" t="s">
         <v>38</v>
@@ -5536,33 +5944,33 @@
         <v>39</v>
       </c>
       <c r="D161" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E161" t="s">
+        <v>44</v>
+      </c>
+      <c r="F161">
+        <v>9.5</v>
+      </c>
+      <c r="G161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>37</v>
+      </c>
+      <c r="B162" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" t="s">
+        <v>40</v>
+      </c>
+      <c r="E162" t="s">
         <v>45</v>
-      </c>
-      <c r="F161">
-        <v>9.75</v>
-      </c>
-      <c r="G161">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>71</v>
-      </c>
-      <c r="B162" t="s">
-        <v>38</v>
-      </c>
-      <c r="C162" t="s">
-        <v>39</v>
-      </c>
-      <c r="D162" t="s">
-        <v>81</v>
-      </c>
-      <c r="E162" t="s">
-        <v>43</v>
       </c>
       <c r="F162">
         <v>9.5</v>
@@ -5571,9 +5979,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B163" t="s">
         <v>38</v>
@@ -5582,21 +5990,21 @@
         <v>39</v>
       </c>
       <c r="D163" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E163" t="s">
         <v>46</v>
       </c>
       <c r="F163">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="G163">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B164" t="s">
         <v>38</v>
@@ -5605,21 +6013,21 @@
         <v>39</v>
       </c>
       <c r="D164" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E164" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F164">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="G164">
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B165" t="s">
         <v>38</v>
@@ -5628,21 +6036,21 @@
         <v>39</v>
       </c>
       <c r="D165" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F165">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="G165">
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B166" t="s">
         <v>38</v>
@@ -5651,10 +6059,10 @@
         <v>39</v>
       </c>
       <c r="D166" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E166" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F166">
         <v>10</v>
@@ -5663,9 +6071,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B167" t="s">
         <v>38</v>
@@ -5674,21 +6082,21 @@
         <v>39</v>
       </c>
       <c r="D167" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E167" t="s">
         <v>42</v>
       </c>
       <c r="F167">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="G167">
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B168" t="s">
         <v>38</v>
@@ -5697,21 +6105,21 @@
         <v>39</v>
       </c>
       <c r="D168" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F168">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G168">
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B169" t="s">
         <v>38</v>
@@ -5720,44 +6128,44 @@
         <v>39</v>
       </c>
       <c r="D169" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E169" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169">
+        <v>9</v>
+      </c>
+      <c r="G169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>37</v>
+      </c>
+      <c r="B170" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" t="s">
+        <v>62</v>
+      </c>
+      <c r="E170" t="s">
         <v>45</v>
       </c>
-      <c r="F169">
-        <v>10</v>
-      </c>
-      <c r="G169">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>71</v>
-      </c>
-      <c r="B170" t="s">
-        <v>38</v>
-      </c>
-      <c r="C170" t="s">
-        <v>39</v>
-      </c>
-      <c r="D170" t="s">
-        <v>82</v>
-      </c>
-      <c r="E170" t="s">
-        <v>43</v>
-      </c>
       <c r="F170">
-        <v>9.5</v>
+        <v>9.65</v>
       </c>
       <c r="G170">
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B171" t="s">
         <v>38</v>
@@ -5766,7 +6174,7 @@
         <v>39</v>
       </c>
       <c r="D171" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E171" t="s">
         <v>46</v>
@@ -5778,9 +6186,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B172" t="s">
         <v>38</v>
@@ -5789,462 +6197,318 @@
         <v>39</v>
       </c>
       <c r="D172" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E172" t="s">
+        <v>47</v>
+      </c>
+      <c r="F172">
+        <v>9</v>
+      </c>
+      <c r="G172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>37</v>
+      </c>
+      <c r="B173" t="s">
+        <v>38</v>
+      </c>
+      <c r="C173" t="s">
+        <v>39</v>
+      </c>
+      <c r="D173" t="s">
+        <v>62</v>
+      </c>
+      <c r="E173" t="s">
+        <v>48</v>
+      </c>
+      <c r="F173">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>37</v>
+      </c>
+      <c r="B174" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" t="s">
+        <v>39</v>
+      </c>
+      <c r="D174" t="s">
+        <v>65</v>
+      </c>
+      <c r="E174" t="s">
+        <v>43</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>37</v>
+      </c>
+      <c r="B175" t="s">
+        <v>38</v>
+      </c>
+      <c r="C175" t="s">
+        <v>39</v>
+      </c>
+      <c r="D175" t="s">
+        <v>74</v>
+      </c>
+      <c r="E175" t="s">
+        <v>41</v>
+      </c>
+      <c r="F175">
+        <v>10</v>
+      </c>
+      <c r="G175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>37</v>
+      </c>
+      <c r="B176" t="s">
+        <v>38</v>
+      </c>
+      <c r="C176" t="s">
+        <v>39</v>
+      </c>
+      <c r="D176" t="s">
+        <v>74</v>
+      </c>
+      <c r="E176" t="s">
+        <v>42</v>
+      </c>
+      <c r="F176">
+        <v>9</v>
+      </c>
+      <c r="G176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>37</v>
+      </c>
+      <c r="B177" t="s">
+        <v>38</v>
+      </c>
+      <c r="C177" t="s">
+        <v>39</v>
+      </c>
+      <c r="D177" t="s">
+        <v>74</v>
+      </c>
+      <c r="E177" t="s">
+        <v>43</v>
+      </c>
+      <c r="F177">
+        <v>10</v>
+      </c>
+      <c r="G177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>37</v>
+      </c>
+      <c r="B178" t="s">
+        <v>38</v>
+      </c>
+      <c r="C178" t="s">
+        <v>39</v>
+      </c>
+      <c r="D178" t="s">
+        <v>74</v>
+      </c>
+      <c r="E178" t="s">
         <v>44</v>
       </c>
-      <c r="F172">
-        <v>9</v>
-      </c>
-      <c r="G172">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>71</v>
-      </c>
-      <c r="B173" t="s">
-        <v>38</v>
-      </c>
-      <c r="C173" t="s">
-        <v>39</v>
-      </c>
-      <c r="D173" t="s">
-        <v>82</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="F178">
+        <v>7.5</v>
+      </c>
+      <c r="G178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>37</v>
+      </c>
+      <c r="B179" t="s">
+        <v>38</v>
+      </c>
+      <c r="C179" t="s">
+        <v>39</v>
+      </c>
+      <c r="D179" t="s">
+        <v>74</v>
+      </c>
+      <c r="E179" t="s">
+        <v>45</v>
+      </c>
+      <c r="F179">
+        <v>9.6</v>
+      </c>
+      <c r="G179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>37</v>
+      </c>
+      <c r="B180" t="s">
+        <v>38</v>
+      </c>
+      <c r="C180" t="s">
+        <v>39</v>
+      </c>
+      <c r="D180" t="s">
+        <v>74</v>
+      </c>
+      <c r="E180" t="s">
+        <v>46</v>
+      </c>
+      <c r="F180">
+        <v>9</v>
+      </c>
+      <c r="G180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>37</v>
+      </c>
+      <c r="B181" t="s">
+        <v>38</v>
+      </c>
+      <c r="C181" t="s">
+        <v>39</v>
+      </c>
+      <c r="D181" t="s">
+        <v>74</v>
+      </c>
+      <c r="E181" t="s">
         <v>47</v>
       </c>
-      <c r="F173">
-        <v>9.5</v>
-      </c>
-      <c r="G173">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>31</v>
-      </c>
-      <c r="B174" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" t="s">
-        <v>28</v>
-      </c>
-      <c r="D174" t="s">
-        <v>83</v>
-      </c>
-      <c r="E174" t="s">
-        <v>15</v>
-      </c>
-      <c r="F174">
-        <v>17.55</v>
-      </c>
-      <c r="G174">
-        <v>10</v>
-      </c>
-      <c r="H174">
-        <v>1</v>
-      </c>
-      <c r="I174">
-        <v>4</v>
-      </c>
-      <c r="J174">
-        <v>5</v>
-      </c>
-      <c r="K174">
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>31</v>
-      </c>
-      <c r="B175" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" t="s">
-        <v>28</v>
-      </c>
-      <c r="D175" t="s">
-        <v>83</v>
-      </c>
-      <c r="E175" t="s">
-        <v>16</v>
-      </c>
-      <c r="F175">
-        <v>18.5</v>
-      </c>
-      <c r="G175">
-        <v>10</v>
-      </c>
-      <c r="H175">
-        <v>1</v>
-      </c>
-      <c r="I175">
-        <v>4</v>
-      </c>
-      <c r="J175">
-        <v>5</v>
-      </c>
-      <c r="K175">
+      <c r="F181">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>31</v>
-      </c>
-      <c r="B176" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D176" t="s">
-        <v>83</v>
-      </c>
-      <c r="E176" t="s">
-        <v>17</v>
-      </c>
-      <c r="F176">
-        <v>18.8</v>
-      </c>
-      <c r="G176">
-        <v>9</v>
-      </c>
-      <c r="H176">
-        <v>0</v>
-      </c>
-      <c r="I176">
-        <v>9</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>31</v>
-      </c>
-      <c r="B177" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" t="s">
-        <v>28</v>
-      </c>
-      <c r="D177" t="s">
-        <v>83</v>
-      </c>
-      <c r="E177" t="s">
-        <v>18</v>
-      </c>
-      <c r="F177">
-        <v>18.05</v>
-      </c>
-      <c r="G177">
-        <v>9</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>4</v>
-      </c>
-      <c r="J177">
-        <v>5</v>
-      </c>
-      <c r="K177">
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>11</v>
-      </c>
-      <c r="B178" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" t="s">
-        <v>13</v>
-      </c>
-      <c r="D178" t="s">
-        <v>84</v>
-      </c>
-      <c r="E178" t="s">
-        <v>15</v>
-      </c>
-      <c r="F178">
-        <v>19.5</v>
-      </c>
-      <c r="G178">
-        <v>10</v>
-      </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
-      <c r="I178">
-        <v>4</v>
-      </c>
-      <c r="J178">
-        <v>5</v>
-      </c>
-      <c r="K178">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>11</v>
-      </c>
-      <c r="B179" t="s">
-        <v>12</v>
-      </c>
-      <c r="C179" t="s">
-        <v>13</v>
-      </c>
-      <c r="D179" t="s">
-        <v>84</v>
-      </c>
-      <c r="E179" t="s">
-        <v>16</v>
-      </c>
-      <c r="F179">
-        <v>19.25</v>
-      </c>
-      <c r="G179">
-        <v>10</v>
-      </c>
-      <c r="H179">
-        <v>1</v>
-      </c>
-      <c r="I179">
-        <v>4</v>
-      </c>
-      <c r="J179">
-        <v>5</v>
-      </c>
-      <c r="K179">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>11</v>
-      </c>
-      <c r="B180" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" t="s">
-        <v>13</v>
-      </c>
-      <c r="D180" t="s">
-        <v>84</v>
-      </c>
-      <c r="E180" t="s">
-        <v>17</v>
-      </c>
-      <c r="F180">
-        <v>18.55</v>
-      </c>
-      <c r="G180">
-        <v>9</v>
-      </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-      <c r="I180">
-        <v>9</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="K180">
-        <v>9.5500000000000007</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>11</v>
-      </c>
-      <c r="B181" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" t="s">
-        <v>13</v>
-      </c>
-      <c r="D181" t="s">
-        <v>84</v>
-      </c>
-      <c r="E181" t="s">
-        <v>18</v>
-      </c>
-      <c r="F181">
-        <v>17.899999999999999</v>
-      </c>
       <c r="G181">
         <v>10</v>
       </c>
-      <c r="H181">
-        <v>1</v>
-      </c>
-      <c r="I181">
-        <v>4</v>
-      </c>
-      <c r="J181">
-        <v>5</v>
-      </c>
-      <c r="K181">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D182" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E182" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F182">
-        <v>17.25</v>
+        <v>8</v>
       </c>
       <c r="G182">
-        <v>9</v>
-      </c>
-      <c r="H182">
-        <v>0</v>
-      </c>
-      <c r="I182">
-        <v>4</v>
-      </c>
-      <c r="J182">
-        <v>5</v>
-      </c>
-      <c r="K182">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D183" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E183" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F183">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="G183">
         <v>10</v>
       </c>
-      <c r="H183">
-        <v>1</v>
-      </c>
-      <c r="I183">
-        <v>4</v>
-      </c>
-      <c r="J183">
-        <v>5</v>
-      </c>
-      <c r="K183">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D184" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E184" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F184">
-        <v>19.100000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="G184">
         <v>10</v>
       </c>
-      <c r="H184">
-        <v>1</v>
-      </c>
-      <c r="I184">
-        <v>4</v>
-      </c>
-      <c r="J184">
-        <v>5</v>
-      </c>
-      <c r="K184">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D185" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E185" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F185">
-        <v>18.350000000000001</v>
+        <v>10</v>
       </c>
       <c r="G185">
-        <v>9</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="I185">
-        <v>9</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>37</v>
       </c>
@@ -6255,10 +6519,10 @@
         <v>39</v>
       </c>
       <c r="D186" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F186">
         <v>9</v>
@@ -6267,7 +6531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>37</v>
       </c>
@@ -6278,19 +6542,19 @@
         <v>39</v>
       </c>
       <c r="D187" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F187">
-        <v>8.75</v>
+        <v>9.6</v>
       </c>
       <c r="G187">
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>37</v>
       </c>
@@ -6301,19 +6565,19 @@
         <v>39</v>
       </c>
       <c r="D188" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E188" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F188">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="G188">
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>37</v>
       </c>
@@ -6324,19 +6588,19 @@
         <v>39</v>
       </c>
       <c r="D189" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E189" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F189">
-        <v>8.5</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="G189">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>37</v>
       </c>
@@ -6347,19 +6611,19 @@
         <v>39</v>
       </c>
       <c r="D190" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E190" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F190">
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="G190">
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>37</v>
       </c>
@@ -6373,16 +6637,16 @@
         <v>86</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F191">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="G191">
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>37</v>
       </c>
@@ -6396,16 +6660,16 @@
         <v>86</v>
       </c>
       <c r="E192" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F192">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="G192">
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -6419,388 +6683,292 @@
         <v>86</v>
       </c>
       <c r="E193" t="s">
+        <v>43</v>
+      </c>
+      <c r="F193">
+        <v>9.5</v>
+      </c>
+      <c r="G193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>37</v>
+      </c>
+      <c r="B194" t="s">
+        <v>38</v>
+      </c>
+      <c r="C194" t="s">
+        <v>39</v>
+      </c>
+      <c r="D194" t="s">
+        <v>86</v>
+      </c>
+      <c r="E194" t="s">
+        <v>44</v>
+      </c>
+      <c r="F194">
+        <v>8.5</v>
+      </c>
+      <c r="G194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>37</v>
+      </c>
+      <c r="B195" t="s">
+        <v>38</v>
+      </c>
+      <c r="C195" t="s">
+        <v>39</v>
+      </c>
+      <c r="D195" t="s">
+        <v>86</v>
+      </c>
+      <c r="E195" t="s">
+        <v>45</v>
+      </c>
+      <c r="F195">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>37</v>
+      </c>
+      <c r="B196" t="s">
+        <v>38</v>
+      </c>
+      <c r="C196" t="s">
+        <v>39</v>
+      </c>
+      <c r="D196" t="s">
+        <v>86</v>
+      </c>
+      <c r="E196" t="s">
+        <v>46</v>
+      </c>
+      <c r="F196">
+        <v>9.5</v>
+      </c>
+      <c r="G196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>37</v>
+      </c>
+      <c r="B197" t="s">
+        <v>38</v>
+      </c>
+      <c r="C197" t="s">
+        <v>39</v>
+      </c>
+      <c r="D197" t="s">
+        <v>86</v>
+      </c>
+      <c r="E197" t="s">
+        <v>47</v>
+      </c>
+      <c r="F197">
+        <v>8.5</v>
+      </c>
+      <c r="G197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>37</v>
+      </c>
+      <c r="B198" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198" t="s">
+        <v>39</v>
+      </c>
+      <c r="D198" t="s">
+        <v>86</v>
+      </c>
+      <c r="E198" t="s">
         <v>48</v>
       </c>
-      <c r="F193">
+      <c r="F198">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G193">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>31</v>
-      </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" t="s">
-        <v>28</v>
-      </c>
-      <c r="D194" t="s">
-        <v>87</v>
-      </c>
-      <c r="E194" t="s">
-        <v>15</v>
-      </c>
-      <c r="F194">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="G194">
-        <v>10</v>
-      </c>
-      <c r="H194">
-        <v>1</v>
-      </c>
-      <c r="I194">
-        <v>4</v>
-      </c>
-      <c r="J194">
-        <v>5</v>
-      </c>
-      <c r="K194">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>31</v>
-      </c>
-      <c r="B195" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" t="s">
-        <v>28</v>
-      </c>
-      <c r="D195" t="s">
-        <v>87</v>
-      </c>
-      <c r="E195" t="s">
-        <v>16</v>
-      </c>
-      <c r="F195">
-        <v>18.8</v>
-      </c>
-      <c r="G195">
-        <v>10</v>
-      </c>
-      <c r="H195">
-        <v>1</v>
-      </c>
-      <c r="I195">
-        <v>4</v>
-      </c>
-      <c r="J195">
-        <v>5</v>
-      </c>
-      <c r="K195">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>31</v>
-      </c>
-      <c r="B196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" t="s">
-        <v>28</v>
-      </c>
-      <c r="D196" t="s">
-        <v>87</v>
-      </c>
-      <c r="E196" t="s">
-        <v>17</v>
-      </c>
-      <c r="F196">
-        <v>18.7</v>
-      </c>
-      <c r="G196">
-        <v>9</v>
-      </c>
-      <c r="H196">
-        <v>0</v>
-      </c>
-      <c r="I196">
-        <v>9</v>
-      </c>
-      <c r="J196">
-        <v>0</v>
-      </c>
-      <c r="K196">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>31</v>
-      </c>
-      <c r="B197" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" t="s">
-        <v>28</v>
-      </c>
-      <c r="D197" t="s">
-        <v>87</v>
-      </c>
-      <c r="E197" t="s">
-        <v>18</v>
-      </c>
-      <c r="F197">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="G197">
-        <v>9</v>
-      </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-      <c r="I197">
-        <v>4</v>
-      </c>
-      <c r="J197">
-        <v>5</v>
-      </c>
-      <c r="K197">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>49</v>
-      </c>
-      <c r="B198" t="s">
-        <v>20</v>
-      </c>
-      <c r="C198" t="s">
-        <v>21</v>
-      </c>
-      <c r="D198" t="s">
-        <v>88</v>
-      </c>
-      <c r="E198" t="s">
-        <v>24</v>
-      </c>
-      <c r="F198">
-        <v>16.75</v>
-      </c>
       <c r="G198">
         <v>10</v>
       </c>
-      <c r="H198">
-        <v>1</v>
-      </c>
-      <c r="K198">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B199" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D199" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E199" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F199">
-        <v>19.05</v>
+        <v>9</v>
       </c>
       <c r="G199">
         <v>10</v>
       </c>
-      <c r="H199">
-        <v>1</v>
-      </c>
-      <c r="K199">
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B200" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C200" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D200" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E200" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F200">
-        <v>18.8</v>
+        <v>10</v>
       </c>
       <c r="G200">
-        <v>9</v>
-      </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-      <c r="K200">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B201" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C201" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D201" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E201" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F201">
-        <v>18.100000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="G201">
-        <v>9</v>
-      </c>
-      <c r="H201">
-        <v>0</v>
-      </c>
-      <c r="K201">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B202" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C202" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D202" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E202" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F202">
-        <v>19.7</v>
+        <v>9.5</v>
       </c>
       <c r="G202">
         <v>10</v>
       </c>
-      <c r="H202">
-        <v>1</v>
-      </c>
-      <c r="K202">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B203" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D203" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E203" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F203">
-        <v>19.25</v>
+        <v>9</v>
       </c>
       <c r="G203">
         <v>10</v>
       </c>
-      <c r="H203">
-        <v>1</v>
-      </c>
-      <c r="K203">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B204" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C204" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D204" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E204" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F204">
-        <v>18.7</v>
+        <v>8.5</v>
       </c>
       <c r="G204">
-        <v>9</v>
-      </c>
-      <c r="H204">
-        <v>0</v>
-      </c>
-      <c r="K204">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B205" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D205" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E205" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F205">
-        <v>18.149999999999999</v>
+        <v>9</v>
       </c>
       <c r="G205">
-        <v>9</v>
-      </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-      <c r="K205">
-        <v>9.15</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>71</v>
       </c>
@@ -6811,19 +6979,19 @@
         <v>39</v>
       </c>
       <c r="D206" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E206" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F206">
-        <v>9.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G206">
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>71</v>
       </c>
@@ -6834,19 +7002,19 @@
         <v>39</v>
       </c>
       <c r="D207" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F207">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="G207">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>71</v>
       </c>
@@ -6857,10 +7025,10 @@
         <v>39</v>
       </c>
       <c r="D208" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E208" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F208">
         <v>10</v>
@@ -6869,7 +7037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>71</v>
       </c>
@@ -6880,19 +7048,19 @@
         <v>39</v>
       </c>
       <c r="D209" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F209">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="G209">
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>71</v>
       </c>
@@ -6903,19 +7071,19 @@
         <v>39</v>
       </c>
       <c r="D210" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E210" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F210">
-        <v>6.75</v>
+        <v>9.5</v>
       </c>
       <c r="G210">
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>71</v>
       </c>
@@ -6926,19 +7094,19 @@
         <v>39</v>
       </c>
       <c r="D211" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E211" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F211">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="G211">
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>71</v>
       </c>
@@ -6949,19 +7117,19 @@
         <v>39</v>
       </c>
       <c r="D212" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E212" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F212">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="G212">
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>71</v>
       </c>
@@ -6972,159 +7140,111 @@
         <v>39</v>
       </c>
       <c r="D213" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E213" t="s">
+        <v>47</v>
+      </c>
+      <c r="F213">
+        <v>9.5</v>
+      </c>
+      <c r="G213">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>71</v>
+      </c>
+      <c r="B214" t="s">
+        <v>38</v>
+      </c>
+      <c r="C214" t="s">
+        <v>39</v>
+      </c>
+      <c r="D214" t="s">
+        <v>81</v>
+      </c>
+      <c r="E214" t="s">
         <v>48</v>
       </c>
-      <c r="F213">
-        <v>8</v>
-      </c>
-      <c r="G213">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>34</v>
-      </c>
-      <c r="B214" t="s">
-        <v>12</v>
-      </c>
-      <c r="C214" t="s">
-        <v>35</v>
-      </c>
-      <c r="D214" t="s">
-        <v>91</v>
-      </c>
-      <c r="E214" t="s">
-        <v>15</v>
-      </c>
       <c r="F214">
-        <v>18.25</v>
+        <v>10</v>
       </c>
       <c r="G214">
         <v>10</v>
       </c>
-      <c r="H214">
-        <v>1</v>
-      </c>
-      <c r="I214">
-        <v>4</v>
-      </c>
-      <c r="J214">
-        <v>5</v>
-      </c>
-      <c r="K214">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D215" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E215" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F215">
-        <v>19.55</v>
+        <v>9.75</v>
       </c>
       <c r="G215">
         <v>10</v>
       </c>
-      <c r="H215">
-        <v>1</v>
-      </c>
-      <c r="I215">
-        <v>4</v>
-      </c>
-      <c r="J215">
-        <v>5</v>
-      </c>
-      <c r="K215">
-        <v>9.5500000000000007</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D216" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E216" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F216">
-        <v>19.149999999999999</v>
+        <v>10</v>
       </c>
       <c r="G216">
         <v>10</v>
       </c>
-      <c r="H216">
-        <v>1</v>
-      </c>
-      <c r="I216">
-        <v>4</v>
-      </c>
-      <c r="J216">
-        <v>5</v>
-      </c>
-      <c r="K216">
-        <v>9.15</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D217" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E217" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F217">
-        <v>20.350000000000001</v>
+        <v>10</v>
       </c>
       <c r="G217">
-        <v>10.5</v>
-      </c>
-      <c r="H217">
-        <v>0</v>
-      </c>
-      <c r="I217">
-        <v>10.5</v>
-      </c>
-      <c r="J217">
-        <v>0</v>
-      </c>
-      <c r="K217">
-        <v>9.85</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>71</v>
       </c>
@@ -7135,19 +7255,19 @@
         <v>39</v>
       </c>
       <c r="D218" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F218">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="G218">
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>71</v>
       </c>
@@ -7158,19 +7278,19 @@
         <v>39</v>
       </c>
       <c r="D219" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F219">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="G219">
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>71</v>
       </c>
@@ -7181,19 +7301,19 @@
         <v>39</v>
       </c>
       <c r="D220" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E220" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F220">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="G220">
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>71</v>
       </c>
@@ -7204,10 +7324,10 @@
         <v>39</v>
       </c>
       <c r="D221" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E221" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F221">
         <v>9.5</v>
@@ -7216,7 +7336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>71</v>
       </c>
@@ -7227,19 +7347,19 @@
         <v>39</v>
       </c>
       <c r="D222" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E222" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F222">
-        <v>6.25</v>
+        <v>9.9</v>
       </c>
       <c r="G222">
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>71</v>
       </c>
@@ -7250,19 +7370,19 @@
         <v>39</v>
       </c>
       <c r="D223" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E223" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F223">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="G223">
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>71</v>
       </c>
@@ -7273,19 +7393,19 @@
         <v>39</v>
       </c>
       <c r="D224" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E224" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F224">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G224">
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>71</v>
       </c>
@@ -7296,412 +7416,292 @@
         <v>39</v>
       </c>
       <c r="D225" t="s">
+        <v>90</v>
+      </c>
+      <c r="E225" t="s">
+        <v>43</v>
+      </c>
+      <c r="F225">
+        <v>10</v>
+      </c>
+      <c r="G225">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>71</v>
+      </c>
+      <c r="B226" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226" t="s">
+        <v>39</v>
+      </c>
+      <c r="D226" t="s">
+        <v>90</v>
+      </c>
+      <c r="E226" t="s">
+        <v>46</v>
+      </c>
+      <c r="F226">
+        <v>6.75</v>
+      </c>
+      <c r="G226">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>71</v>
+      </c>
+      <c r="B227" t="s">
+        <v>38</v>
+      </c>
+      <c r="C227" t="s">
+        <v>39</v>
+      </c>
+      <c r="D227" t="s">
+        <v>90</v>
+      </c>
+      <c r="E227" t="s">
+        <v>44</v>
+      </c>
+      <c r="F227">
+        <v>7.5</v>
+      </c>
+      <c r="G227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>71</v>
+      </c>
+      <c r="B228" t="s">
+        <v>38</v>
+      </c>
+      <c r="C228" t="s">
+        <v>39</v>
+      </c>
+      <c r="D228" t="s">
+        <v>90</v>
+      </c>
+      <c r="E228" t="s">
+        <v>47</v>
+      </c>
+      <c r="F228">
+        <v>5</v>
+      </c>
+      <c r="G228">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>71</v>
+      </c>
+      <c r="B229" t="s">
+        <v>38</v>
+      </c>
+      <c r="C229" t="s">
+        <v>39</v>
+      </c>
+      <c r="D229" t="s">
+        <v>90</v>
+      </c>
+      <c r="E229" t="s">
+        <v>48</v>
+      </c>
+      <c r="F229">
+        <v>8</v>
+      </c>
+      <c r="G229">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>71</v>
+      </c>
+      <c r="B230" t="s">
+        <v>38</v>
+      </c>
+      <c r="C230" t="s">
+        <v>39</v>
+      </c>
+      <c r="D230" t="s">
         <v>92</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E230" t="s">
+        <v>42</v>
+      </c>
+      <c r="F230">
+        <v>9</v>
+      </c>
+      <c r="G230">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>71</v>
+      </c>
+      <c r="B231" t="s">
+        <v>38</v>
+      </c>
+      <c r="C231" t="s">
+        <v>39</v>
+      </c>
+      <c r="D231" t="s">
+        <v>92</v>
+      </c>
+      <c r="E231" t="s">
+        <v>41</v>
+      </c>
+      <c r="F231">
+        <v>9.5</v>
+      </c>
+      <c r="G231">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>71</v>
+      </c>
+      <c r="B232" t="s">
+        <v>38</v>
+      </c>
+      <c r="C232" t="s">
+        <v>39</v>
+      </c>
+      <c r="D232" t="s">
+        <v>92</v>
+      </c>
+      <c r="E232" t="s">
+        <v>45</v>
+      </c>
+      <c r="F232">
+        <v>9.6</v>
+      </c>
+      <c r="G232">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>71</v>
+      </c>
+      <c r="B233" t="s">
+        <v>38</v>
+      </c>
+      <c r="C233" t="s">
+        <v>39</v>
+      </c>
+      <c r="D233" t="s">
+        <v>92</v>
+      </c>
+      <c r="E233" t="s">
+        <v>43</v>
+      </c>
+      <c r="F233">
+        <v>9.5</v>
+      </c>
+      <c r="G233">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>71</v>
+      </c>
+      <c r="B234" t="s">
+        <v>38</v>
+      </c>
+      <c r="C234" t="s">
+        <v>39</v>
+      </c>
+      <c r="D234" t="s">
+        <v>92</v>
+      </c>
+      <c r="E234" t="s">
+        <v>46</v>
+      </c>
+      <c r="F234">
+        <v>6.25</v>
+      </c>
+      <c r="G234">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>71</v>
+      </c>
+      <c r="B235" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" t="s">
+        <v>39</v>
+      </c>
+      <c r="D235" t="s">
+        <v>92</v>
+      </c>
+      <c r="E235" t="s">
+        <v>44</v>
+      </c>
+      <c r="F235">
+        <v>7.5</v>
+      </c>
+      <c r="G235">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>71</v>
+      </c>
+      <c r="B236" t="s">
+        <v>38</v>
+      </c>
+      <c r="C236" t="s">
+        <v>39</v>
+      </c>
+      <c r="D236" t="s">
+        <v>92</v>
+      </c>
+      <c r="E236" t="s">
+        <v>47</v>
+      </c>
+      <c r="F236">
+        <v>9</v>
+      </c>
+      <c r="G236">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>71</v>
+      </c>
+      <c r="B237" t="s">
+        <v>38</v>
+      </c>
+      <c r="C237" t="s">
+        <v>39</v>
+      </c>
+      <c r="D237" t="s">
+        <v>92</v>
+      </c>
+      <c r="E237" t="s">
         <v>48</v>
       </c>
-      <c r="F225">
+      <c r="F237">
         <v>8.5</v>
       </c>
-      <c r="G225">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>19</v>
-      </c>
-      <c r="B226" t="s">
-        <v>20</v>
-      </c>
-      <c r="C226" t="s">
-        <v>21</v>
-      </c>
-      <c r="D226" t="s">
-        <v>93</v>
-      </c>
-      <c r="E226" t="s">
-        <v>24</v>
-      </c>
-      <c r="F226">
-        <v>19.2</v>
-      </c>
-      <c r="G226">
-        <v>10</v>
-      </c>
-      <c r="H226">
-        <v>1</v>
-      </c>
-      <c r="K226">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>19</v>
-      </c>
-      <c r="B227" t="s">
-        <v>20</v>
-      </c>
-      <c r="C227" t="s">
-        <v>21</v>
-      </c>
-      <c r="D227" t="s">
-        <v>93</v>
-      </c>
-      <c r="E227" t="s">
-        <v>23</v>
-      </c>
-      <c r="F227">
-        <v>19</v>
-      </c>
-      <c r="G227">
-        <v>10</v>
-      </c>
-      <c r="H227">
-        <v>1</v>
-      </c>
-      <c r="K227">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>19</v>
-      </c>
-      <c r="B228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C228" t="s">
-        <v>21</v>
-      </c>
-      <c r="D228" t="s">
-        <v>93</v>
-      </c>
-      <c r="E228" t="s">
-        <v>25</v>
-      </c>
-      <c r="F228">
-        <v>18.3</v>
-      </c>
-      <c r="G228">
-        <v>9</v>
-      </c>
-      <c r="H228">
-        <v>0</v>
-      </c>
-      <c r="K228">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>19</v>
-      </c>
-      <c r="B229" t="s">
-        <v>20</v>
-      </c>
-      <c r="C229" t="s">
-        <v>21</v>
-      </c>
-      <c r="D229" t="s">
-        <v>93</v>
-      </c>
-      <c r="E229" t="s">
-        <v>26</v>
-      </c>
-      <c r="F229">
-        <v>17.5</v>
-      </c>
-      <c r="G229">
-        <v>9</v>
-      </c>
-      <c r="H229">
-        <v>0</v>
-      </c>
-      <c r="K229">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>27</v>
-      </c>
-      <c r="B230" t="s">
-        <v>12</v>
-      </c>
-      <c r="C230" t="s">
-        <v>28</v>
-      </c>
-      <c r="D230" t="s">
-        <v>94</v>
-      </c>
-      <c r="E230" t="s">
-        <v>15</v>
-      </c>
-      <c r="F230">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G230">
-        <v>10</v>
-      </c>
-      <c r="H230">
-        <v>1</v>
-      </c>
-      <c r="I230">
-        <v>4</v>
-      </c>
-      <c r="J230">
-        <v>5</v>
-      </c>
-      <c r="K230">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>27</v>
-      </c>
-      <c r="B231" t="s">
-        <v>12</v>
-      </c>
-      <c r="C231" t="s">
-        <v>28</v>
-      </c>
-      <c r="D231" t="s">
-        <v>94</v>
-      </c>
-      <c r="E231" t="s">
-        <v>16</v>
-      </c>
-      <c r="F231">
-        <v>17.8</v>
-      </c>
-      <c r="G231">
-        <v>9</v>
-      </c>
-      <c r="H231">
-        <v>1</v>
-      </c>
-      <c r="I231">
-        <v>3</v>
-      </c>
-      <c r="J231">
-        <v>5</v>
-      </c>
-      <c r="K231">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>27</v>
-      </c>
-      <c r="B232" t="s">
-        <v>12</v>
-      </c>
-      <c r="C232" t="s">
-        <v>28</v>
-      </c>
-      <c r="D232" t="s">
-        <v>94</v>
-      </c>
-      <c r="E232" t="s">
-        <v>18</v>
-      </c>
-      <c r="F232">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="G232">
-        <v>9</v>
-      </c>
-      <c r="H232">
-        <v>0</v>
-      </c>
-      <c r="I232">
-        <v>4</v>
-      </c>
-      <c r="J232">
-        <v>5</v>
-      </c>
-      <c r="K232">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>27</v>
-      </c>
-      <c r="B233" t="s">
-        <v>12</v>
-      </c>
-      <c r="C233" t="s">
-        <v>28</v>
-      </c>
-      <c r="D233" t="s">
-        <v>94</v>
-      </c>
-      <c r="E233" t="s">
-        <v>17</v>
-      </c>
-      <c r="F233">
-        <v>19.25</v>
-      </c>
-      <c r="G233">
-        <v>9.5</v>
-      </c>
-      <c r="H233">
-        <v>0</v>
-      </c>
-      <c r="I233">
-        <v>9.5</v>
-      </c>
-      <c r="J233">
-        <v>0</v>
-      </c>
-      <c r="K233">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>11</v>
-      </c>
-      <c r="B234" t="s">
-        <v>12</v>
-      </c>
-      <c r="C234" t="s">
-        <v>13</v>
-      </c>
-      <c r="D234" t="s">
-        <v>95</v>
-      </c>
-      <c r="E234" t="s">
-        <v>15</v>
-      </c>
-      <c r="F234">
-        <v>19.5</v>
-      </c>
-      <c r="G234">
-        <v>10</v>
-      </c>
-      <c r="H234">
-        <v>1</v>
-      </c>
-      <c r="I234">
-        <v>4</v>
-      </c>
-      <c r="J234">
-        <v>5</v>
-      </c>
-      <c r="K234">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>11</v>
-      </c>
-      <c r="B235" t="s">
-        <v>12</v>
-      </c>
-      <c r="C235" t="s">
-        <v>13</v>
-      </c>
-      <c r="D235" t="s">
-        <v>95</v>
-      </c>
-      <c r="E235" t="s">
-        <v>16</v>
-      </c>
-      <c r="F235">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="G235">
-        <v>10</v>
-      </c>
-      <c r="H235">
-        <v>1</v>
-      </c>
-      <c r="I235">
-        <v>4</v>
-      </c>
-      <c r="J235">
-        <v>5</v>
-      </c>
-      <c r="K235">
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>11</v>
-      </c>
-      <c r="B236" t="s">
-        <v>12</v>
-      </c>
-      <c r="C236" t="s">
-        <v>13</v>
-      </c>
-      <c r="D236" t="s">
-        <v>95</v>
-      </c>
-      <c r="E236" t="s">
-        <v>17</v>
-      </c>
-      <c r="F236">
-        <v>18.25</v>
-      </c>
-      <c r="G236">
-        <v>9</v>
-      </c>
-      <c r="H236">
-        <v>0</v>
-      </c>
-      <c r="I236">
-        <v>9</v>
-      </c>
-      <c r="J236">
-        <v>0</v>
-      </c>
-      <c r="K236">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>11</v>
-      </c>
-      <c r="B237" t="s">
-        <v>12</v>
-      </c>
-      <c r="C237" t="s">
-        <v>13</v>
-      </c>
-      <c r="D237" t="s">
-        <v>95</v>
-      </c>
-      <c r="E237" t="s">
-        <v>18</v>
-      </c>
-      <c r="F237">
-        <v>17.850000000000001</v>
-      </c>
       <c r="G237">
-        <v>9</v>
-      </c>
-      <c r="H237">
-        <v>0</v>
-      </c>
-      <c r="I237">
-        <v>4</v>
-      </c>
-      <c r="J237">
-        <v>5</v>
-      </c>
-      <c r="K237">
-        <v>8.85</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
